--- a/SententialDB.xlsx
+++ b/SententialDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iqraali/Projects/Flutter/sentencial/testProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iqraali/Projects/Flutter/sentencial/excel-to-json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE37D3F-3AC3-3847-B594-BBCD5A3943E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3FEA3-7A3D-3F4A-924D-8C99F4136F54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="920" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{F337291E-3FB2-1946-8B5A-6A3C9CF1AB25}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="32720" windowHeight="20540" activeTab="3" xr2:uid="{F337291E-3FB2-1946-8B5A-6A3C9CF1AB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="351">
   <si>
     <t>ID</t>
   </si>
@@ -269,13 +269,835 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>وہ سب آئس کریم کھا رہے ہیں</t>
+  </si>
+  <si>
+    <t>وہ آپ کے کمرے میں سو رہی ہے</t>
+  </si>
+  <si>
+    <t>وہ آپ کے لئے یہ کار خرید رہا ہے</t>
+  </si>
+  <si>
+    <t>وہ ہم سب کے لئے کیک بنا رہی ہے</t>
+  </si>
+  <si>
+    <t>آپ ان سے ملنے جا رہے ہیں اور میں آپ سے مزید عذر کی امید نہیں کرتا ہوں</t>
+  </si>
+  <si>
+    <t>انہیں اسلام آباد میں ایک نیا اپارٹمنٹ مل رہا ہے</t>
+  </si>
+  <si>
+    <t>وہ روزانہ اونٹ کا دودھ پی رہی ہے</t>
+  </si>
+  <si>
+    <t>آپ اسکول جانے سے محروم ہیں</t>
+  </si>
+  <si>
+    <t>وہ اس نمائش میں حصہ لے رہے ہیں</t>
+  </si>
+  <si>
+    <t>ہم اتوار کو پارٹی کے لئے منصوبہ بنا رہے ہیں</t>
+  </si>
+  <si>
+    <t>میں آج پیر کو آپ کی جگہ آرہا ہوں</t>
+  </si>
+  <si>
+    <t>وہ اگلے ہفتے اس موکل سے ملنے جا رہی ہے</t>
+  </si>
+  <si>
+    <t>وہ اپنے کیمرے کو اپنے بھائی کو قرض دے رہا ہے</t>
+  </si>
+  <si>
+    <t>ڈاکٹر نئے مریضوں کو شام 6 بجے شام دیکھ رہے ہیں</t>
+  </si>
+  <si>
+    <t>بیچنے والا میری ماں سے بات کر رہا ہے</t>
+  </si>
+  <si>
+    <t>درزی آپ کا لباس سلائی کر رہی ہے</t>
+  </si>
+  <si>
+    <t>وہ آپ سے اضافی معاوضہ لے رہی ہے کیونکہ آپ کو دیر ہوچکی ہے</t>
+  </si>
+  <si>
+    <t>وہ شخص آپ کی دیوار کو ٹھیک کررہا ہے</t>
+  </si>
+  <si>
+    <t>مزدور یہ مکان تعمیر کررہے ہیں</t>
+  </si>
+  <si>
+    <t>آپ دوسرے مزدوروں کے ساتھ تہہ خانے میں رہ رہے ہیں</t>
+  </si>
+  <si>
+    <t>ہم سب ہیڈ ماسٹر کو خط لکھ رہے ہیں</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They all are eating ice cream </t>
+  </si>
+  <si>
+    <t>She is sleeping in your room</t>
+  </si>
+  <si>
+    <t>He is buying this car for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is baking cake for all of us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are going to meet them and I expect no more excuses from you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are finding a new appartment in Islamabad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is drinking camel milk daily </t>
+  </si>
+  <si>
+    <t>You are missing going to school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are participating in this exhibition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are planning for a party on Sunday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am coming to your place this Monday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is going to meet this client next week </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is lending his camera to his brother </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctor is seeing new patients at 6:00 O'clock </t>
+  </si>
+  <si>
+    <t>Seller is talking to my mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tailor is stitching your dress </t>
+  </si>
+  <si>
+    <t>She is charging you extra because you are late</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The person is fixing your wall </t>
+  </si>
+  <si>
+    <t>Labours are building this house</t>
+  </si>
+  <si>
+    <t>You are living in the basement with other labours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We all are writing a letter to the headmaster </t>
+  </si>
+  <si>
+    <t>انہوں نے اپنا ہوم ورک بروقت ختم کردیا</t>
+  </si>
+  <si>
+    <t>انہوں نے پہلے ہی اس چاکلیٹ کو کھا لیا ہے</t>
+  </si>
+  <si>
+    <t>ہم نے پہلے ہی اس ریستوراں کی کوشش کی ہے</t>
+  </si>
+  <si>
+    <t>ہم سب نے پہلے بھی اس جگہ کا دورہ کیا ہے</t>
+  </si>
+  <si>
+    <t>اس نے مجھ سے اس کے فلیٹ آنے کو کہا ہے</t>
+  </si>
+  <si>
+    <t>اسے آپ کے لئے ایک بہترین لیپ ٹاپ مل گیا ہے</t>
+  </si>
+  <si>
+    <t>اس نے ہم سب کے لئے کوکیز بنائیں ہیں</t>
+  </si>
+  <si>
+    <t>سارہ اور دانیال لندن چلے گئے ہیں</t>
+  </si>
+  <si>
+    <t>میری والدہ نے مجھے گذشتہ ہفتے اپنی شادی کی تصاویر دکھائیں</t>
+  </si>
+  <si>
+    <t>آپ کے والد نے مجھ سے اپنے والد کا رابطہ نمبر دینے کو کہا ہے</t>
+  </si>
+  <si>
+    <t>میں نے آپ کے لئے یہ کپڑے دھوئے ہیں</t>
+  </si>
+  <si>
+    <t>میری بلی نے یہ شیشہ توڑا ہے</t>
+  </si>
+  <si>
+    <t>میں صرف کیلا کھاتا ہوں ، لیکن آپ کیلے کی ہلا کو پی رہے ہیں</t>
+  </si>
+  <si>
+    <t>اس نے صبح اپنے کمرے کو صاف کیا ہے</t>
+  </si>
+  <si>
+    <t>اس نے اپنی کار غلط جگہ پر کھڑی کردی ہے</t>
+  </si>
+  <si>
+    <t>ہم نے انہیں کھانے کے لئے مدعو کیا ہے</t>
+  </si>
+  <si>
+    <t>صدر نے خصوصی بچوں میں کھلونے تقسیم کیے</t>
+  </si>
+  <si>
+    <t>ہم سب نے کل ان کی تقریر سنی ہے</t>
+  </si>
+  <si>
+    <t>میری دادی نے مجھے یہ کڑا تحفہ میں دیا ہے</t>
+  </si>
+  <si>
+    <t>میرے دوست نے پوچھا ہے کہ کیا میں اسے ایک ہفتہ کے لئے اپنے اپارٹمنٹ میں رہنے دے سکتی ہوں</t>
+  </si>
+  <si>
+    <t>میرے پڑوسیوں نے مجھ سے پوچھا ہے کہ کیا وہ میری کار استعمال کرسکتے ہیں؟</t>
+  </si>
+  <si>
+    <t>They have eaten this chocolate already</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have tried this resturant already </t>
+  </si>
+  <si>
+    <t>We all have visited this place earlier</t>
+  </si>
+  <si>
+    <t>She has asked me to come to her flat</t>
+  </si>
+  <si>
+    <t>He has found a perfect laptop for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She has made cookies for all of us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah and Danial have moved to London </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My mother has showm me her wedding pictures last week </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You father has asked me to give my dad's contact number to him </t>
+  </si>
+  <si>
+    <t>I have washed these clothes for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My cat has broken this glass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I eat only banana, but you are drinking banana shake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She has cleaned her room in the morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He has parked his car on the wrong spot </t>
+  </si>
+  <si>
+    <t>We have invited them on dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The president has distributed toys among special kids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We all have listened to his speech yesterday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My grandma has gifted me this bracelet </t>
+  </si>
+  <si>
+    <t>My friend has asked if I can let her stay in my apartment for a week</t>
+  </si>
+  <si>
+    <t>My neighbours have asked me to if they can use my car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have finished their homework on time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They ate my fruits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She went to market alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">His cat slept in my bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found the lost keys myself </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We met her during English lecture on Sunday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom paid all of our bills </t>
+  </si>
+  <si>
+    <t>He wrote this poem on the Mother's Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maira sent me your birthday pictures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your dog broke my favuorite glass in the kitchen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You wore that black dress only twice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali and Taha grew up in this village </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They drove her home yesterday night </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I and Alina read this story without you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She cut the cake alone on her birthday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I needed your advice yesterday before making that decision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom asked me to pay electricity bill from this shop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They helped me to complete this story </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labours constructed this bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The boy sold all these books in low price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children made a lot of noise in the class </t>
+  </si>
+  <si>
+    <t>انہوں نے میرے پھل کھائے</t>
+  </si>
+  <si>
+    <t>وہ اکیلی بازار گئی تھی</t>
+  </si>
+  <si>
+    <t>اس کی بلی میرے بستر پر سوتی تھی</t>
+  </si>
+  <si>
+    <t>مجھے گمشدہ چابیاں خود مل گئیں</t>
+  </si>
+  <si>
+    <t>ہم اتوار کو ایک انگریزی لیکچر کے دوران ان سے ملے تھے</t>
+  </si>
+  <si>
+    <t>ماں نے ہمارے تمام بل ادا کردیئے</t>
+  </si>
+  <si>
+    <t>انہوں نے یہ نظم مدرز ڈے پر لکھی تھی</t>
+  </si>
+  <si>
+    <t>مائرہ نے مجھے آپ کی سالگرہ کی تصاویر بھیجی ہیں</t>
+  </si>
+  <si>
+    <t>آپ کے کتے نے باورچی خانے میں میرا پسندیدہ شیشہ توڑ دیا</t>
+  </si>
+  <si>
+    <t>آپ نے یہ سیاہ لباس صرف دو بار پہنا تھا</t>
+  </si>
+  <si>
+    <t>علی اور طحہ اسی گاؤں میں بڑے ہوئے تھے</t>
+  </si>
+  <si>
+    <t>انہوں نے کل رات اس کے گھر روانہ کیا</t>
+  </si>
+  <si>
+    <t>میں اور علینہ نے آپ کے بغیر یہ کہانی پڑھی</t>
+  </si>
+  <si>
+    <t>اس نے اپنی سالگرہ کے موقع پر تن تنہا کیک کاٹا</t>
+  </si>
+  <si>
+    <t>مجھے یہ فیصلہ کرنے سے پہلے کل آپ کے مشورے کی ضرورت تھی</t>
+  </si>
+  <si>
+    <t>ماں نے مجھ سے اس دکان سے بجلی کا بل ادا کرنے کو کہا</t>
+  </si>
+  <si>
+    <t>انہوں نے اس کہانی کو مکمل کرنے میں میری مدد کی</t>
+  </si>
+  <si>
+    <t>مزدوروں نے اس پل کی تعمیر کی</t>
+  </si>
+  <si>
+    <t>لڑکے نے یہ ساری کتابیں کم قیمت پر فروخت کیں</t>
+  </si>
+  <si>
+    <t>بچوں نے کلاس میں بہت شور مچایا</t>
+  </si>
+  <si>
+    <t>Children have been learning this poem since morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father has been reading this newspaper for an hour </t>
+  </si>
+  <si>
+    <t>He has been sleeping for two hours</t>
+  </si>
+  <si>
+    <t>They have been visiting this place in June since 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This lady has been working here since last month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">People are fighting here since morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These students have not been focusing on their studies since last month </t>
+  </si>
+  <si>
+    <t>My brother has been working in this office since 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alia has been reading this novel for a week now </t>
+  </si>
+  <si>
+    <t>صبح سے ہی بچے یہ نظم سیکھ رہے ہیں</t>
+  </si>
+  <si>
+    <t>والد ایک گھنٹے سے یہ اخبار پڑھ رہے ہیں</t>
+  </si>
+  <si>
+    <t>وہ دو گھنٹے سو رہا ہے</t>
+  </si>
+  <si>
+    <t>وہ 2005 سے جون میں اس جگہ کا دورہ کر رہے ہیں</t>
+  </si>
+  <si>
+    <t>یہ ٹیم پچھلے پانچ سالوں سے یہ میچ جیت رہی ہے</t>
+  </si>
+  <si>
+    <t>یہ خاتون گزشتہ ماہ سے یہاں کام کررہی ہے</t>
+  </si>
+  <si>
+    <t>میں پچھلے تین گھنٹوں سے یہ خط لکھ رہا ہوں</t>
+  </si>
+  <si>
+    <t>صبح سے لوگ یہاں لڑ رہے ہیں</t>
+  </si>
+  <si>
+    <t>یہ طلبہ پچھلے مہینے سے اپنی تعلیم پر توجہ نہیں دے رہے ہیں</t>
+  </si>
+  <si>
+    <t>استاد گذشتہ دو ہفتوں سے یہ سبق پڑھا رہا ہے</t>
+  </si>
+  <si>
+    <t>کل رات سے ہی بارش ہو رہی ہے</t>
+  </si>
+  <si>
+    <t>وہ پچھلے دس منٹ سے آپ کے دروازے پر دستک دے رہے ہیں</t>
+  </si>
+  <si>
+    <t>میرا بھائی 2018 سے اس دفتر میں کام کر رہا ہے</t>
+  </si>
+  <si>
+    <t>پچھلے تین سالوں سے ، ہم اسی ریستوراں میں آپ کی سالگرہ منا رہے ہیں</t>
+  </si>
+  <si>
+    <t>انجینئر گذشتہ دو سالوں سے اس عمارت کو ڈیزائن کررہے ہیں</t>
+  </si>
+  <si>
+    <t>وہ گذشتہ ہفتے سے ہی روزہ رکھ رہی ہیں</t>
+  </si>
+  <si>
+    <t>مریض آخری گھنٹے سے ڈاکٹر کا انتظار کر رہے ہیں</t>
+  </si>
+  <si>
+    <t>ڈاکٹر پچھلے سال سے مجھے اس دوا کی سفارش کر رہا ہے</t>
+  </si>
+  <si>
+    <t>میری والدہ پچھلے کئی سالوں سے گھر میں یہ برگر پک رہی ہیں</t>
+  </si>
+  <si>
+    <t>عالیہ اس ناول کو ایک ہفتے سے پڑھ رہی ہے</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This team has been winning this match for the last five years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been writing this letter for the last three hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The teacher has been teaching this lesson for the last two weeks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has been raining since yesterday night </t>
+  </si>
+  <si>
+    <t>They have been knocking on your door for the last ten minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the last three years, we have been celebrating your birthday in the same restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The engineers have been designing this building for the last two years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She has been fasting since last week </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The patients have been waiting for the doctor for the last hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The doctor has been recommending me this medicine for last year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My mother has been cooking these burgers at home for the last many years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were playing cricket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She was cleaning her room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hira and Ali were finishing their school work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The animals were making loud moaning in the morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was raining on Monday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were eating chocolates together </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She was teaching really good </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were reciting their holy book </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dad was scolding me for telling lie about yesterday party </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was watching the horror money alone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She was crying for the toys </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was running too fast in the morning </t>
+  </si>
+  <si>
+    <t>You were celebrating your success with your friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were giving food to street dogs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You all were chasing the thief in the midnight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The police officer was staring at you when you were shouting on me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom was waiting for me outside the school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children were making a lot of noise in the classroom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neighbors were complaining about the noise you make </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cobbler was charging too much for fixing your shoes </t>
+  </si>
+  <si>
+    <t>وہ کرکٹ کھیل رہے تھے</t>
+  </si>
+  <si>
+    <t>وہ اپنے کمرے کی صفائی کر رہی تھی</t>
+  </si>
+  <si>
+    <t>ہم اسٹریٹ کتوں کو کھانا دے رہے تھے</t>
+  </si>
+  <si>
+    <t>آدھی رات کو آپ سب چور کا پیچھا کر رہے تھے</t>
+  </si>
+  <si>
+    <t>حرا اور علی اپنے اسکول کا کام ختم کر رہے تھے</t>
+  </si>
+  <si>
+    <t>پولیس آفیسر آپ کو گھور رہا تھا جب آپ مجھ پر چیخ رہے تھے</t>
+  </si>
+  <si>
+    <t>صبح ہوتے ہی جانور زور سے کراہ رہے تھے</t>
+  </si>
+  <si>
+    <t>پیر کو بارش ہو رہی تھی</t>
+  </si>
+  <si>
+    <t>ہم ساتھ چاکلیٹ کھا رہے تھے</t>
+  </si>
+  <si>
+    <t>وہ واقعی اچھ .ی پڑھاتی تھی</t>
+  </si>
+  <si>
+    <t>وہ اپنی مقدس کتاب کی تلاوت کر رہے تھے</t>
+  </si>
+  <si>
+    <t>ماں اسکول سے باہر میرا انتظار کر رہی تھی</t>
+  </si>
+  <si>
+    <t>کل کی پارٹی کے بارے میں جھوٹ بولنے پر والد مجھے ڈانٹ رہے تھے</t>
+  </si>
+  <si>
+    <t>وہ تنہا خوف کی رقم دیکھ رہا تھا</t>
+  </si>
+  <si>
+    <t>بچے کلاس روم میں بہت شور مچا رہے تھے</t>
+  </si>
+  <si>
+    <t>پڑوسی آپ کی آواز کے بارے میں شکایت کر رہے تھے</t>
+  </si>
+  <si>
+    <t>موچی اپنے جوتے ٹھیک کرنے کے لئے بہت زیادہ معاوضہ لے رہا تھا</t>
+  </si>
+  <si>
+    <t>آپ اپنے دوستوں کے ساتھ مل کر اپنی کامیابی کا جشن منا رہے تھے</t>
+  </si>
+  <si>
+    <t>میں صبح بہت تیز دوڑ رہا تھا</t>
+  </si>
+  <si>
+    <t>وہ کھلونوں کے لئے رو رہی تھی</t>
+  </si>
+  <si>
+    <t>They had written you a letter on Friday</t>
+  </si>
+  <si>
+    <t>She had prepared dinner for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had visited this market before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You all had watched this movie so many times before </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shopkeeper had sold out this book in affordable price </t>
+  </si>
+  <si>
+    <t>Goldsmith had made you fool by selling this ring so expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boys had played cricket in the morning  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kids had already fought over this topic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher had posted test marks on the university site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest had already met you somewhere else </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother had waited for you quite a lot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The poet had written a beuatiful poem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The farmer had taken care of the fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father had bought this car for me on my good result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">These people had already forgotten your mistake </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She had paid your school fee </t>
+  </si>
+  <si>
+    <t>My friends had planned a party for me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My brother had invited his friends on this Sunday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The man had killed these birds </t>
+  </si>
+  <si>
+    <t>My sister had suggested me to buy this dress for you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It had been raining since morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You had been sleeping for more than five hours now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They had been washing clothes since yesterday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had been trying to complete this school work for a week now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The man had been waiting for his son for half an hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mom had been designing your room since morning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the boys had been watching this cartoon since last years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The girls had been playing guitar for an hour now  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It had been raining for the last three hours </t>
+  </si>
+  <si>
+    <t>She had been wasting water for the last hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The teacher had been announcing this test for last </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The laborers had been fixing this road since yesterday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The girl had been walking here for the last thirty minutes </t>
+  </si>
+  <si>
+    <t>They all had been walking in the cold for the last twenty minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients had been waiting for the doctor since the afternoon </t>
+  </si>
+  <si>
+    <t>صبح سے ہی بارش ہو رہی تھی</t>
+  </si>
+  <si>
+    <t>پچھلے تین گھنٹوں سے بارش ہو رہی تھی</t>
+  </si>
+  <si>
+    <t>وہ کل سے ہی کپڑے دھو رہے تھے</t>
+  </si>
+  <si>
+    <t>وہ آخری گھنٹے سے پانی ضائع کررہی تھی</t>
+  </si>
+  <si>
+    <t>اب آپ پانچ گھنٹے سے زیادہ سو رہے تھے</t>
+  </si>
+  <si>
+    <t>میں ابھی ایک ہفتہ سے اس اسکول کا کام مکمل کرنے کی کوشش کر رہا تھا</t>
+  </si>
+  <si>
+    <t>استاد آخری بار اس امتحان کا اعلان کر رہا تھا</t>
+  </si>
+  <si>
+    <t>مزدور کل سے ہی اس سڑک کو ٹھیک کررہے تھے</t>
+  </si>
+  <si>
+    <t>وہ شخص آدھے گھنٹے سے اپنے بیٹے کا انتظار کر رہا تھا</t>
+  </si>
+  <si>
+    <t>لڑکی گذشتہ تیس منٹ سے یہاں چل رہی تھی</t>
+  </si>
+  <si>
+    <t>ماں صبح سے ہی آپ کے کمرے کا ڈیزائن بنا رہی تھی</t>
+  </si>
+  <si>
+    <t>تمام لڑکے گذشتہ برسوں سے یہ کارٹون دیکھ رہے تھے</t>
+  </si>
+  <si>
+    <t>لڑکیاں اب ایک گھنٹہ سے گٹار بجا رہی تھیں</t>
+  </si>
+  <si>
+    <t>وہ سب گذشتہ بیس منٹ سے سردی میں چل رہے تھے</t>
+  </si>
+  <si>
+    <t>مریض دوپہر سے ہی ڈاکٹر کا انتظار کر رہے تھے</t>
+  </si>
+  <si>
+    <t>انہوں نے جمعہ کے روز آپ کو ایک خط لکھا تھا</t>
+  </si>
+  <si>
+    <t>اس نے آپ کے لئے رات کا کھانا تیار کیا تھا</t>
+  </si>
+  <si>
+    <t>ہم اس سے پہلے بھی اس بازار میں گئے تھے</t>
+  </si>
+  <si>
+    <t>آپ سب نے پہلے بھی اس فلم کو کئی بار دیکھا تھا</t>
+  </si>
+  <si>
+    <t>دکاندار نے اس کتاب کو سستی قیمت میں فروخت کردیا تھا</t>
+  </si>
+  <si>
+    <t>سنار نے اس انگوٹھی کو اتنا مہنگا بیچ کر آپ کو بے وقوف بنایا تھا</t>
+  </si>
+  <si>
+    <t>لڑکے صبح ہی کرکٹ کھیل چکے تھے</t>
+  </si>
+  <si>
+    <t>بچوں نے پہلے ہی اس موضوع پر لڑا تھا</t>
+  </si>
+  <si>
+    <t>اساتذہ نے یونیورسٹی سائٹ پر ٹیسٹ نمبر پوسٹ کیے تھے</t>
+  </si>
+  <si>
+    <t>مہمان پہلے ہی آپ سے کہیں اور مل چکا تھا</t>
+  </si>
+  <si>
+    <t>والدہ نے آپ کا بہت انتظار کیا تھا</t>
+  </si>
+  <si>
+    <t>شاعر نے ایک خوبصورت نظم لکھی تھی</t>
+  </si>
+  <si>
+    <t>کسان نے کھیتوں کی دیکھ بھال کی تھی</t>
+  </si>
+  <si>
+    <t>والد نے یہ کار میرے اچھے نتائج پر میرے لئے خریدی تھی</t>
+  </si>
+  <si>
+    <t>میری بہن نے مجھے آپ کے لئے یہ لباس خریدنے کا مشورہ دیا تھا</t>
+  </si>
+  <si>
+    <t>اس شخص نے ان پرندوں کو مار ڈالا تھا</t>
+  </si>
+  <si>
+    <t>میرے بھائی نے اس اتوار کو اپنے دوستوں کو مدعو کیا تھا</t>
+  </si>
+  <si>
+    <t>میرے دوستوں نے میرے لئے پارٹی کا منصوبہ بنایا تھا</t>
+  </si>
+  <si>
+    <t>اس نے آپ کی اسکول کی فیس ادا کردی تھی</t>
+  </si>
+  <si>
+    <t>یہ لوگ آپ کی غلطی پہلے ہی بھول چکے تھے</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,8 +1127,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +1154,38 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,11 +1208,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,12 +1232,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,7 +1575,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -693,17 +1583,17 @@
     <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -871,7 +1761,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -879,11 +1769,11 @@
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -913,7 +1803,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -923,11 +1813,11 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1026,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04332652-95C3-4B44-87F9-833C5931C4F5}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1038,11 +1928,11 @@
     <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1050,7 +1940,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1058,7 +1948,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1066,7 +1956,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1074,7 +1964,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1082,7 +1972,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1090,7 +1980,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1098,7 +1988,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1106,7 +1996,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1114,7 +2004,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1122,7 +2012,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1130,7 +2020,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1138,7 +2028,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1146,7 +2036,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1154,7 +2044,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1162,7 +2052,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1170,7 +2060,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1178,7 +2068,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1186,7 +2076,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1194,7 +2084,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1202,7 +2092,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1210,7 +2100,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1218,8 +2108,1104 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1229,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CF1BA9-6540-E04E-8978-AFBD428ED5EA}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E23"/>
+    <sheetView topLeftCell="A128" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126:E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1241,24 +3227,24 @@
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1634,6 +3620,2335 @@
       </c>
       <c r="E23" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>23</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>24</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>25</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>26</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>27</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>28</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="9">
+        <v>29</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9">
+        <v>30</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9">
+        <v>31</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
+        <v>32</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2</v>
+      </c>
+      <c r="D34" s="9">
+        <v>33</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9">
+        <v>34</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>35</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" s="9">
+        <v>36</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9">
+        <v>37</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9">
+        <v>38</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>39</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9">
+        <v>40</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9">
+        <v>41</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9">
+        <v>42</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9">
+        <v>43</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>44</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>45</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>46</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>47</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>48</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>49</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="7">
+        <v>50</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7">
+        <v>51</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>52</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7">
+        <v>3</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7">
+        <v>53</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7">
+        <v>54</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>55</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7">
+        <v>56</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7">
+        <v>57</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>58</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7">
+        <v>59</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <v>2</v>
+      </c>
+      <c r="D61" s="7">
+        <v>60</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7">
+        <v>3</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7">
+        <v>61</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7">
+        <v>2</v>
+      </c>
+      <c r="D63" s="7">
+        <v>62</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7">
+        <v>63</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7">
+        <v>64</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9">
+        <v>65</v>
+      </c>
+      <c r="B66" s="9">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9">
+        <v>2</v>
+      </c>
+      <c r="D66" s="9">
+        <v>65</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9">
+        <v>2</v>
+      </c>
+      <c r="D67" s="9">
+        <v>66</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9">
+        <v>4</v>
+      </c>
+      <c r="C68" s="9">
+        <v>2</v>
+      </c>
+      <c r="D68" s="9">
+        <v>67</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="9">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9">
+        <v>4</v>
+      </c>
+      <c r="C69" s="9">
+        <v>2</v>
+      </c>
+      <c r="D69" s="9">
+        <v>68</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="9">
+        <v>69</v>
+      </c>
+      <c r="B70" s="9">
+        <v>4</v>
+      </c>
+      <c r="C70" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" s="9">
+        <v>69</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="9">
+        <v>70</v>
+      </c>
+      <c r="B71" s="9">
+        <v>4</v>
+      </c>
+      <c r="C71" s="9">
+        <v>2</v>
+      </c>
+      <c r="D71" s="9">
+        <v>70</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="9">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9">
+        <v>4</v>
+      </c>
+      <c r="C72" s="9">
+        <v>2</v>
+      </c>
+      <c r="D72" s="9">
+        <v>71</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9">
+        <v>4</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" s="9">
+        <v>72</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9">
+        <v>4</v>
+      </c>
+      <c r="C74" s="9">
+        <v>2</v>
+      </c>
+      <c r="D74" s="9">
+        <v>73</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="9">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9">
+        <v>4</v>
+      </c>
+      <c r="C75" s="9">
+        <v>2</v>
+      </c>
+      <c r="D75" s="9">
+        <v>74</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9">
+        <v>4</v>
+      </c>
+      <c r="C76" s="9">
+        <v>2</v>
+      </c>
+      <c r="D76" s="9">
+        <v>75</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9">
+        <v>4</v>
+      </c>
+      <c r="C77" s="9">
+        <v>2</v>
+      </c>
+      <c r="D77" s="9">
+        <v>76</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="9">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9">
+        <v>4</v>
+      </c>
+      <c r="C78" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" s="9">
+        <v>77</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9">
+        <v>4</v>
+      </c>
+      <c r="C79" s="9">
+        <v>2</v>
+      </c>
+      <c r="D79" s="9">
+        <v>78</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9">
+        <v>4</v>
+      </c>
+      <c r="C80" s="9">
+        <v>2</v>
+      </c>
+      <c r="D80" s="9">
+        <v>79</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="9">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9">
+        <v>4</v>
+      </c>
+      <c r="C81" s="9">
+        <v>2</v>
+      </c>
+      <c r="D81" s="9">
+        <v>80</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9">
+        <v>4</v>
+      </c>
+      <c r="C82" s="9">
+        <v>2</v>
+      </c>
+      <c r="D82" s="9">
+        <v>81</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9">
+        <v>4</v>
+      </c>
+      <c r="C83" s="9">
+        <v>2</v>
+      </c>
+      <c r="D83" s="9">
+        <v>82</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="9">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9">
+        <v>4</v>
+      </c>
+      <c r="C84" s="9">
+        <v>2</v>
+      </c>
+      <c r="D84" s="9">
+        <v>83</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9">
+        <v>4</v>
+      </c>
+      <c r="C85" s="9">
+        <v>2</v>
+      </c>
+      <c r="D85" s="9">
+        <v>84</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7">
+        <v>5</v>
+      </c>
+      <c r="C86" s="7">
+        <v>2</v>
+      </c>
+      <c r="D86" s="7">
+        <v>85</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7">
+        <v>2</v>
+      </c>
+      <c r="D87" s="7">
+        <v>86</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7">
+        <v>5</v>
+      </c>
+      <c r="C88" s="7">
+        <v>2</v>
+      </c>
+      <c r="D88" s="7">
+        <v>87</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7">
+        <v>5</v>
+      </c>
+      <c r="C89" s="7">
+        <v>2</v>
+      </c>
+      <c r="D89" s="7">
+        <v>88</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7">
+        <v>5</v>
+      </c>
+      <c r="C90" s="7">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>89</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7">
+        <v>5</v>
+      </c>
+      <c r="C91" s="7">
+        <v>2</v>
+      </c>
+      <c r="D91" s="7">
+        <v>90</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7">
+        <v>5</v>
+      </c>
+      <c r="C92" s="7">
+        <v>2</v>
+      </c>
+      <c r="D92" s="7">
+        <v>91</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7">
+        <v>5</v>
+      </c>
+      <c r="C93" s="7">
+        <v>2</v>
+      </c>
+      <c r="D93" s="7">
+        <v>92</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7">
+        <v>5</v>
+      </c>
+      <c r="C94" s="7">
+        <v>2</v>
+      </c>
+      <c r="D94" s="7">
+        <v>93</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7">
+        <v>5</v>
+      </c>
+      <c r="C95" s="7">
+        <v>2</v>
+      </c>
+      <c r="D95" s="7">
+        <v>94</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7">
+        <v>5</v>
+      </c>
+      <c r="C96" s="7">
+        <v>2</v>
+      </c>
+      <c r="D96" s="7">
+        <v>95</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7">
+        <v>5</v>
+      </c>
+      <c r="C97" s="7">
+        <v>2</v>
+      </c>
+      <c r="D97" s="7">
+        <v>96</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7">
+        <v>5</v>
+      </c>
+      <c r="C98" s="7">
+        <v>2</v>
+      </c>
+      <c r="D98" s="7">
+        <v>97</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7">
+        <v>5</v>
+      </c>
+      <c r="C99" s="7">
+        <v>2</v>
+      </c>
+      <c r="D99" s="7">
+        <v>98</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7">
+        <v>5</v>
+      </c>
+      <c r="C100" s="7">
+        <v>2</v>
+      </c>
+      <c r="D100" s="7">
+        <v>99</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7">
+        <v>5</v>
+      </c>
+      <c r="C101" s="7">
+        <v>2</v>
+      </c>
+      <c r="D101" s="7">
+        <v>100</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7">
+        <v>5</v>
+      </c>
+      <c r="C102" s="7">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7">
+        <v>101</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7">
+        <v>5</v>
+      </c>
+      <c r="C103" s="7">
+        <v>2</v>
+      </c>
+      <c r="D103" s="7">
+        <v>102</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7">
+        <v>5</v>
+      </c>
+      <c r="C104" s="7">
+        <v>2</v>
+      </c>
+      <c r="D104" s="7">
+        <v>103</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7">
+        <v>5</v>
+      </c>
+      <c r="C105" s="7">
+        <v>2</v>
+      </c>
+      <c r="D105" s="7">
+        <v>104</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9">
+        <v>6</v>
+      </c>
+      <c r="C106" s="9">
+        <v>2</v>
+      </c>
+      <c r="D106" s="9">
+        <v>105</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="9">
+        <v>106</v>
+      </c>
+      <c r="B107" s="9">
+        <v>6</v>
+      </c>
+      <c r="C107" s="9">
+        <v>2</v>
+      </c>
+      <c r="D107" s="9">
+        <v>106</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="9">
+        <v>107</v>
+      </c>
+      <c r="B108" s="9">
+        <v>6</v>
+      </c>
+      <c r="C108" s="9">
+        <v>2</v>
+      </c>
+      <c r="D108" s="9">
+        <v>107</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="9">
+        <v>6</v>
+      </c>
+      <c r="C109" s="9">
+        <v>2</v>
+      </c>
+      <c r="D109" s="9">
+        <v>108</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="9">
+        <v>109</v>
+      </c>
+      <c r="B110" s="9">
+        <v>6</v>
+      </c>
+      <c r="C110" s="9">
+        <v>2</v>
+      </c>
+      <c r="D110" s="9">
+        <v>109</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="9">
+        <v>110</v>
+      </c>
+      <c r="B111" s="9">
+        <v>6</v>
+      </c>
+      <c r="C111" s="9">
+        <v>2</v>
+      </c>
+      <c r="D111" s="9">
+        <v>110</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9">
+        <v>111</v>
+      </c>
+      <c r="B112" s="9">
+        <v>6</v>
+      </c>
+      <c r="C112" s="9">
+        <v>2</v>
+      </c>
+      <c r="D112" s="9">
+        <v>111</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="9">
+        <v>6</v>
+      </c>
+      <c r="C113" s="9">
+        <v>2</v>
+      </c>
+      <c r="D113" s="9">
+        <v>112</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="9">
+        <v>6</v>
+      </c>
+      <c r="C114" s="9">
+        <v>2</v>
+      </c>
+      <c r="D114" s="9">
+        <v>113</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="9">
+        <v>6</v>
+      </c>
+      <c r="C115" s="9">
+        <v>2</v>
+      </c>
+      <c r="D115" s="9">
+        <v>114</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="9">
+        <v>115</v>
+      </c>
+      <c r="B116" s="9">
+        <v>6</v>
+      </c>
+      <c r="C116" s="9">
+        <v>2</v>
+      </c>
+      <c r="D116" s="9">
+        <v>115</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="9">
+        <v>116</v>
+      </c>
+      <c r="B117" s="9">
+        <v>6</v>
+      </c>
+      <c r="C117" s="9">
+        <v>2</v>
+      </c>
+      <c r="D117" s="9">
+        <v>116</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="9">
+        <v>6</v>
+      </c>
+      <c r="C118" s="9">
+        <v>2</v>
+      </c>
+      <c r="D118" s="9">
+        <v>117</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="9">
+        <v>118</v>
+      </c>
+      <c r="B119" s="9">
+        <v>6</v>
+      </c>
+      <c r="C119" s="9">
+        <v>2</v>
+      </c>
+      <c r="D119" s="9">
+        <v>118</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="9">
+        <v>119</v>
+      </c>
+      <c r="B120" s="9">
+        <v>6</v>
+      </c>
+      <c r="C120" s="9">
+        <v>2</v>
+      </c>
+      <c r="D120" s="9">
+        <v>119</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="9">
+        <v>6</v>
+      </c>
+      <c r="C121" s="9">
+        <v>2</v>
+      </c>
+      <c r="D121" s="9">
+        <v>120</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="9">
+        <v>121</v>
+      </c>
+      <c r="B122" s="9">
+        <v>6</v>
+      </c>
+      <c r="C122" s="9">
+        <v>2</v>
+      </c>
+      <c r="D122" s="9">
+        <v>121</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="9">
+        <v>122</v>
+      </c>
+      <c r="B123" s="9">
+        <v>6</v>
+      </c>
+      <c r="C123" s="9">
+        <v>2</v>
+      </c>
+      <c r="D123" s="9">
+        <v>122</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="9">
+        <v>6</v>
+      </c>
+      <c r="C124" s="9">
+        <v>2</v>
+      </c>
+      <c r="D124" s="9">
+        <v>123</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="9">
+        <v>124</v>
+      </c>
+      <c r="B125" s="9">
+        <v>6</v>
+      </c>
+      <c r="C125" s="9">
+        <v>2</v>
+      </c>
+      <c r="D125" s="9">
+        <v>124</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7">
+        <v>7</v>
+      </c>
+      <c r="C126" s="7">
+        <v>2</v>
+      </c>
+      <c r="D126" s="7">
+        <v>125</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7">
+        <v>7</v>
+      </c>
+      <c r="C127" s="7">
+        <v>2</v>
+      </c>
+      <c r="D127" s="7">
+        <v>126</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7">
+        <v>7</v>
+      </c>
+      <c r="C128" s="7">
+        <v>2</v>
+      </c>
+      <c r="D128" s="7">
+        <v>127</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7">
+        <v>7</v>
+      </c>
+      <c r="C129" s="7">
+        <v>2</v>
+      </c>
+      <c r="D129" s="7">
+        <v>128</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7">
+        <v>7</v>
+      </c>
+      <c r="C130" s="7">
+        <v>2</v>
+      </c>
+      <c r="D130" s="7">
+        <v>129</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7">
+        <v>7</v>
+      </c>
+      <c r="C131" s="7">
+        <v>2</v>
+      </c>
+      <c r="D131" s="7">
+        <v>130</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7">
+        <v>7</v>
+      </c>
+      <c r="C132" s="7">
+        <v>2</v>
+      </c>
+      <c r="D132" s="7">
+        <v>131</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7">
+        <v>7</v>
+      </c>
+      <c r="C133" s="7">
+        <v>2</v>
+      </c>
+      <c r="D133" s="7">
+        <v>132</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7">
+        <v>7</v>
+      </c>
+      <c r="C134" s="7">
+        <v>2</v>
+      </c>
+      <c r="D134" s="7">
+        <v>133</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+      <c r="B135" s="7">
+        <v>7</v>
+      </c>
+      <c r="C135" s="7">
+        <v>2</v>
+      </c>
+      <c r="D135" s="7">
+        <v>134</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7">
+        <v>7</v>
+      </c>
+      <c r="C136" s="7">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7">
+        <v>135</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+      <c r="B137" s="7">
+        <v>7</v>
+      </c>
+      <c r="C137" s="7">
+        <v>2</v>
+      </c>
+      <c r="D137" s="7">
+        <v>136</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="7">
+        <v>7</v>
+      </c>
+      <c r="C138" s="7">
+        <v>2</v>
+      </c>
+      <c r="D138" s="7">
+        <v>137</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7">
+        <v>7</v>
+      </c>
+      <c r="C139" s="7">
+        <v>2</v>
+      </c>
+      <c r="D139" s="7">
+        <v>138</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7">
+        <v>7</v>
+      </c>
+      <c r="C140" s="7">
+        <v>2</v>
+      </c>
+      <c r="D140" s="7">
+        <v>139</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7">
+        <v>7</v>
+      </c>
+      <c r="C141" s="7">
+        <v>2</v>
+      </c>
+      <c r="D141" s="7">
+        <v>140</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7">
+        <v>7</v>
+      </c>
+      <c r="C142" s="7">
+        <v>2</v>
+      </c>
+      <c r="D142" s="7">
+        <v>141</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7">
+        <v>7</v>
+      </c>
+      <c r="C143" s="7">
+        <v>2</v>
+      </c>
+      <c r="D143" s="7">
+        <v>142</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7">
+        <v>7</v>
+      </c>
+      <c r="C144" s="7">
+        <v>2</v>
+      </c>
+      <c r="D144" s="7">
+        <v>143</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7">
+        <v>7</v>
+      </c>
+      <c r="C145" s="7">
+        <v>2</v>
+      </c>
+      <c r="D145" s="7">
+        <v>144</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="9">
+        <v>145</v>
+      </c>
+      <c r="B146" s="9">
+        <v>8</v>
+      </c>
+      <c r="C146" s="9">
+        <v>2</v>
+      </c>
+      <c r="D146" s="9">
+        <v>145</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="9">
+        <v>8</v>
+      </c>
+      <c r="C147" s="9">
+        <v>2</v>
+      </c>
+      <c r="D147" s="9">
+        <v>146</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="9">
+        <v>147</v>
+      </c>
+      <c r="B148" s="9">
+        <v>8</v>
+      </c>
+      <c r="C148" s="9">
+        <v>2</v>
+      </c>
+      <c r="D148" s="9">
+        <v>147</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="9">
+        <v>148</v>
+      </c>
+      <c r="B149" s="9">
+        <v>8</v>
+      </c>
+      <c r="C149" s="9">
+        <v>2</v>
+      </c>
+      <c r="D149" s="9">
+        <v>148</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="9">
+        <v>149</v>
+      </c>
+      <c r="B150" s="9">
+        <v>8</v>
+      </c>
+      <c r="C150" s="9">
+        <v>2</v>
+      </c>
+      <c r="D150" s="9">
+        <v>149</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="9">
+        <v>8</v>
+      </c>
+      <c r="C151" s="9">
+        <v>2</v>
+      </c>
+      <c r="D151" s="9">
+        <v>150</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="9">
+        <v>151</v>
+      </c>
+      <c r="B152" s="9">
+        <v>8</v>
+      </c>
+      <c r="C152" s="9">
+        <v>2</v>
+      </c>
+      <c r="D152" s="9">
+        <v>151</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9">
+        <v>152</v>
+      </c>
+      <c r="B153" s="9">
+        <v>8</v>
+      </c>
+      <c r="C153" s="9">
+        <v>2</v>
+      </c>
+      <c r="D153" s="9">
+        <v>152</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="9">
+        <v>153</v>
+      </c>
+      <c r="B154" s="9">
+        <v>8</v>
+      </c>
+      <c r="C154" s="9">
+        <v>2</v>
+      </c>
+      <c r="D154" s="9">
+        <v>153</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="9">
+        <v>154</v>
+      </c>
+      <c r="B155" s="9">
+        <v>8</v>
+      </c>
+      <c r="C155" s="9">
+        <v>2</v>
+      </c>
+      <c r="D155" s="9">
+        <v>154</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="9">
+        <v>155</v>
+      </c>
+      <c r="B156" s="9">
+        <v>8</v>
+      </c>
+      <c r="C156" s="9">
+        <v>2</v>
+      </c>
+      <c r="D156" s="9">
+        <v>155</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="9">
+        <v>8</v>
+      </c>
+      <c r="C157" s="9">
+        <v>2</v>
+      </c>
+      <c r="D157" s="9">
+        <v>156</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="9">
+        <v>157</v>
+      </c>
+      <c r="B158" s="9">
+        <v>8</v>
+      </c>
+      <c r="C158" s="9">
+        <v>2</v>
+      </c>
+      <c r="D158" s="9">
+        <v>157</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="9">
+        <v>158</v>
+      </c>
+      <c r="B159" s="9">
+        <v>8</v>
+      </c>
+      <c r="C159" s="9">
+        <v>2</v>
+      </c>
+      <c r="D159" s="9">
+        <v>158</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="9">
+        <v>159</v>
+      </c>
+      <c r="B160" s="9">
+        <v>8</v>
+      </c>
+      <c r="C160" s="9">
+        <v>2</v>
+      </c>
+      <c r="D160" s="9">
+        <v>159</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
